--- a/RS/hg19genedata_final.xlsx
+++ b/RS/hg19genedata_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ideaprojects\readsprocessing\RS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C3B4D4-F0BE-4B84-93A3-99022D9970B9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ED2FDB-4AC5-4AFF-9395-3BDF05981AEF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,9 +196,6 @@
     <t>KAZN</t>
   </si>
   <si>
-    <t>99818043-ex1-int1__100010130-int1</t>
-  </si>
-  <si>
     <t>29281756-int8__29434742-int8-ex9</t>
   </si>
   <si>
@@ -308,9 +305,6 @@
   </si>
   <si>
     <t>120442987-int1__120464039-int1</t>
-  </si>
-  <si>
-    <t>22765761-int7__22744741-int7</t>
   </si>
   <si>
     <t>174252773-int10__174272413-int10-ex11</t>
@@ -692,6 +686,14 @@
   </si>
   <si>
     <t>pattern</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22765761-int7__22744741-int7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>99818043-ex1-int1__100010130-int1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1121,10 +1123,10 @@
   <dimension ref="A1:T72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P41" sqref="P41"/>
+      <selection pane="bottomRight" activeCell="T21" sqref="T21:T54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1150,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1183,25 +1185,25 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="S1" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1212,7 +1214,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>220</v>
       </c>
       <c r="D2">
         <v>99536887</v>
@@ -1236,7 +1238,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L2" s="2">
         <v>99536678</v>
@@ -1245,7 +1247,7 @@
         <v>99900576</v>
       </c>
       <c r="N2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O2">
         <v>99536678</v>
@@ -1260,7 +1262,7 @@
         <v>209</v>
       </c>
       <c r="S2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -1268,335 +1270,335 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D3">
-        <v>29323247</v>
+        <v>7841374</v>
       </c>
       <c r="E3">
-        <v>29476233</v>
+        <v>7916911</v>
       </c>
       <c r="F3">
-        <v>152986</v>
+        <v>75537</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L3" s="2">
-        <v>28390669</v>
+        <v>7680383</v>
       </c>
       <c r="M3" s="2">
-        <v>29809028</v>
+        <v>8043683</v>
       </c>
       <c r="N3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O3">
-        <v>28390669</v>
+        <v>7680383</v>
       </c>
       <c r="P3">
-        <v>1418359</v>
+        <v>363300</v>
       </c>
       <c r="Q3">
-        <v>1085564</v>
+        <v>236528</v>
       </c>
       <c r="R3">
-        <v>932578</v>
+        <v>160991</v>
       </c>
       <c r="S3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D4">
-        <v>20584526</v>
+        <v>7713084</v>
       </c>
       <c r="E4">
-        <v>20456784</v>
+        <v>7787624</v>
       </c>
       <c r="F4">
-        <v>127741</v>
+        <v>74540</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="L4" s="2">
-        <v>20341663</v>
+        <v>7680383</v>
       </c>
       <c r="M4" s="2">
-        <v>20622542</v>
+        <v>8043683</v>
       </c>
       <c r="N4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O4">
-        <v>20622542</v>
+        <v>7680383</v>
       </c>
       <c r="P4">
-        <v>280879</v>
+        <v>363300</v>
       </c>
       <c r="Q4">
-        <v>165758</v>
+        <v>107241</v>
       </c>
       <c r="R4">
-        <v>38016</v>
+        <v>32701</v>
       </c>
       <c r="S4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D5">
-        <v>20582619</v>
+        <v>78075149</v>
       </c>
       <c r="E5">
-        <v>20456784</v>
+        <v>78128691</v>
       </c>
       <c r="F5">
-        <v>125834</v>
+        <v>53542</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="L5" s="2">
-        <v>20341663</v>
+        <v>78035804</v>
       </c>
       <c r="M5" s="2">
-        <v>20622542</v>
+        <v>78155095</v>
       </c>
       <c r="N5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O5">
-        <v>20622542</v>
+        <v>78035804</v>
       </c>
       <c r="P5">
-        <v>280879</v>
+        <v>119291</v>
       </c>
       <c r="Q5">
-        <v>165758</v>
+        <v>92887</v>
       </c>
       <c r="R5">
-        <v>39923</v>
+        <v>39345</v>
       </c>
       <c r="S5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="D6">
-        <v>110588042</v>
+        <v>48353104</v>
       </c>
       <c r="E6">
-        <v>110679721</v>
+        <v>48395896</v>
       </c>
       <c r="F6">
-        <v>91679</v>
+        <v>42792</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L6" s="2">
-        <v>110559351</v>
+        <v>48173167</v>
       </c>
       <c r="M6" s="2">
-        <v>110830584</v>
+        <v>48648868</v>
       </c>
       <c r="N6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O6">
-        <v>110559351</v>
+        <v>48173167</v>
       </c>
       <c r="P6">
-        <v>271233</v>
+        <v>475701</v>
       </c>
       <c r="Q6">
-        <v>120370</v>
+        <v>222729</v>
       </c>
       <c r="R6">
-        <v>28691</v>
+        <v>179937</v>
       </c>
       <c r="S6" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D7">
-        <v>112811135</v>
+        <v>143412033</v>
       </c>
       <c r="E7">
-        <v>112898406</v>
+        <v>143374433</v>
       </c>
       <c r="F7">
-        <v>87271</v>
+        <v>37600</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
-        <v>302</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>272</v>
-      </c>
-      <c r="K7">
-        <v>302272</v>
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>137</v>
       </c>
       <c r="L7" s="2">
-        <v>112542589</v>
+        <v>142984064</v>
       </c>
       <c r="M7" s="2">
-        <v>112934792</v>
+        <v>143567373</v>
       </c>
       <c r="N7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O7">
-        <v>112542589</v>
+        <v>143567373</v>
       </c>
       <c r="P7">
-        <v>392203</v>
+        <v>583309</v>
       </c>
       <c r="Q7">
-        <v>355817</v>
+        <v>192940</v>
       </c>
       <c r="R7">
-        <v>268546</v>
+        <v>155340</v>
       </c>
       <c r="S7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D8">
-        <v>116655068</v>
+        <v>174128795</v>
       </c>
       <c r="E8">
-        <v>116738666</v>
+        <v>174162735</v>
       </c>
       <c r="F8">
-        <v>83598</v>
+        <v>33940</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1608,96 +1610,96 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L8" s="2">
-        <v>116593953</v>
+        <v>174128548</v>
       </c>
       <c r="M8" s="2">
-        <v>116738860</v>
+        <v>174964445</v>
       </c>
       <c r="N8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O8">
-        <v>116593953</v>
+        <v>174128548</v>
       </c>
       <c r="P8">
-        <v>144907</v>
+        <v>835897</v>
       </c>
       <c r="Q8">
-        <v>144713</v>
+        <v>34187</v>
       </c>
       <c r="R8">
-        <v>61115</v>
+        <v>247</v>
       </c>
       <c r="S8" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D9">
-        <v>80689127</v>
+        <v>65024410</v>
       </c>
       <c r="E9">
-        <v>80772106</v>
+        <v>64991550</v>
       </c>
       <c r="F9">
-        <v>82979</v>
+        <v>32860</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L9" s="2">
-        <v>79412357</v>
+        <v>64926981</v>
       </c>
       <c r="M9" s="2">
-        <v>80875986</v>
+        <v>65281610</v>
       </c>
       <c r="N9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O9">
-        <v>79412357</v>
+        <v>65281610</v>
       </c>
       <c r="P9">
-        <v>1463629</v>
+        <v>354629</v>
       </c>
       <c r="Q9">
-        <v>1359749</v>
+        <v>290060</v>
       </c>
       <c r="R9">
-        <v>1276770</v>
+        <v>257200</v>
       </c>
       <c r="S9" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1705,22 +1707,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D10">
-        <v>116655068</v>
+        <v>111161368</v>
       </c>
       <c r="E10">
-        <v>116730802</v>
+        <v>111132570</v>
       </c>
       <c r="F10">
-        <v>75734</v>
+        <v>28798</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1732,54 +1734,54 @@
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L10" s="2">
-        <v>116593953</v>
+        <v>110303107</v>
       </c>
       <c r="M10" s="2">
-        <v>116738860</v>
+        <v>111202573</v>
       </c>
       <c r="N10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O10">
-        <v>116593953</v>
+        <v>111202573</v>
       </c>
       <c r="P10">
-        <v>144907</v>
+        <v>899466</v>
       </c>
       <c r="Q10">
-        <v>136849</v>
+        <v>70003</v>
       </c>
       <c r="R10">
-        <v>61115</v>
+        <v>41205</v>
       </c>
       <c r="S10" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D11">
-        <v>7841374</v>
+        <v>127533298</v>
       </c>
       <c r="E11">
-        <v>7916911</v>
+        <v>127510970</v>
       </c>
       <c r="F11">
-        <v>75537</v>
+        <v>22328</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1788,37 +1790,37 @@
         <v>2</v>
       </c>
       <c r="I11">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="J11">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L11" s="2">
-        <v>7680383</v>
+        <v>127279554</v>
       </c>
       <c r="M11" s="2">
-        <v>8043683</v>
+        <v>127533589</v>
       </c>
       <c r="N11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O11">
-        <v>7680383</v>
+        <v>127533589</v>
       </c>
       <c r="P11">
-        <v>363300</v>
+        <v>254035</v>
       </c>
       <c r="Q11">
-        <v>236528</v>
+        <v>22619</v>
       </c>
       <c r="R11">
-        <v>160991</v>
+        <v>291</v>
       </c>
       <c r="S11" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -1826,22 +1828,22 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="D12">
-        <v>7713084</v>
+        <v>17564290</v>
       </c>
       <c r="E12">
-        <v>7787624</v>
+        <v>17543204</v>
       </c>
       <c r="F12">
-        <v>74540</v>
+        <v>21086</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1850,37 +1852,37 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="L12" s="2">
-        <v>7680383</v>
+        <v>17195626</v>
       </c>
       <c r="M12" s="2">
-        <v>8043683</v>
+        <v>17564738</v>
       </c>
       <c r="N12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O12">
-        <v>7680383</v>
+        <v>17564738</v>
       </c>
       <c r="P12">
-        <v>363300</v>
+        <v>369112</v>
       </c>
       <c r="Q12">
-        <v>107241</v>
+        <v>21534</v>
       </c>
       <c r="R12">
-        <v>32701</v>
+        <v>448</v>
       </c>
       <c r="S12" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -1891,61 +1893,61 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="D13">
-        <v>7715839</v>
+        <v>119915801</v>
       </c>
       <c r="E13">
-        <v>7787624</v>
+        <v>119933561</v>
       </c>
       <c r="F13">
-        <v>71785</v>
+        <v>17760</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="L13" s="2">
-        <v>7680383</v>
+        <v>119913722</v>
       </c>
       <c r="M13" s="2">
-        <v>8043683</v>
+        <v>120390385</v>
       </c>
       <c r="N13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O13">
-        <v>7680383</v>
+        <v>119913722</v>
       </c>
       <c r="P13">
-        <v>363300</v>
+        <v>476663</v>
       </c>
       <c r="Q13">
-        <v>107241</v>
+        <v>19839</v>
       </c>
       <c r="R13">
-        <v>35456</v>
+        <v>2079</v>
       </c>
       <c r="S13" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1956,19 +1958,19 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D14">
-        <v>37188455</v>
+        <v>37126939</v>
       </c>
       <c r="E14">
-        <v>37247066</v>
+        <v>37144631</v>
       </c>
       <c r="F14">
-        <v>58611</v>
+        <v>17692</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1980,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L14" s="2">
         <v>37120536</v>
@@ -1989,7 +1991,7 @@
         <v>37358146</v>
       </c>
       <c r="N14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O14">
         <v>37120536</v>
@@ -1998,199 +2000,199 @@
         <v>237610</v>
       </c>
       <c r="Q14">
-        <v>126530</v>
+        <v>24095</v>
       </c>
       <c r="R14">
-        <v>67919</v>
+        <v>6403</v>
       </c>
       <c r="S14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="T14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="D15">
-        <v>36990681</v>
+        <v>93410350</v>
       </c>
       <c r="E15">
-        <v>36934622</v>
+        <v>93392908</v>
       </c>
       <c r="F15">
-        <v>56058</v>
+        <v>17442</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="L15" s="2">
-        <v>36893966</v>
+        <v>92953775</v>
       </c>
       <c r="M15" s="2">
-        <v>37488852</v>
+        <v>93447404</v>
       </c>
       <c r="N15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O15">
-        <v>37488852</v>
+        <v>93447404</v>
       </c>
       <c r="P15">
-        <v>594886</v>
+        <v>493629</v>
       </c>
       <c r="Q15">
-        <v>554230</v>
+        <v>54496</v>
       </c>
       <c r="R15">
-        <v>498171</v>
+        <v>37054</v>
       </c>
       <c r="S15" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="D16">
-        <v>144670514</v>
+        <v>174274265</v>
       </c>
       <c r="E16">
-        <v>144724258</v>
+        <v>174289640</v>
       </c>
       <c r="F16">
-        <v>53744</v>
+        <v>15375</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J16">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K16" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="L16" s="2">
-        <v>144606837</v>
+        <v>174128548</v>
       </c>
       <c r="M16" s="2">
-        <v>145174170</v>
+        <v>174964445</v>
       </c>
       <c r="N16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O16">
-        <v>144606837</v>
+        <v>174128548</v>
       </c>
       <c r="P16">
-        <v>567333</v>
+        <v>835897</v>
       </c>
       <c r="Q16">
-        <v>117421</v>
+        <v>161092</v>
       </c>
       <c r="R16">
-        <v>63677</v>
+        <v>145717</v>
       </c>
       <c r="S16" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="T16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="D17">
-        <v>78075149</v>
+        <v>1166892</v>
       </c>
       <c r="E17">
-        <v>78128691</v>
+        <v>1152339</v>
       </c>
       <c r="F17">
-        <v>53542</v>
+        <v>14553</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K17" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L17" s="2">
-        <v>78035804</v>
+        <v>1036622</v>
       </c>
       <c r="M17" s="2">
-        <v>78155095</v>
+        <v>1177896</v>
       </c>
       <c r="N17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O17">
-        <v>78035804</v>
+        <v>1177896</v>
       </c>
       <c r="P17">
-        <v>119291</v>
+        <v>141274</v>
       </c>
       <c r="Q17">
-        <v>92887</v>
+        <v>25557</v>
       </c>
       <c r="R17">
-        <v>39345</v>
+        <v>11004</v>
       </c>
       <c r="S17" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="T17">
         <v>1</v>
@@ -2198,25 +2200,25 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="D18">
-        <v>28478403</v>
+        <v>59664696</v>
       </c>
       <c r="E18">
-        <v>28527792</v>
+        <v>59650628</v>
       </c>
       <c r="F18">
-        <v>49390</v>
+        <v>14068</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2228,54 +2230,54 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="L18" s="2">
-        <v>28338940</v>
+        <v>59424633</v>
       </c>
       <c r="M18" s="2">
-        <v>28865511</v>
+        <v>59665099</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O18">
-        <v>28338940</v>
+        <v>59665099</v>
       </c>
       <c r="P18">
-        <v>526571</v>
+        <v>240466</v>
       </c>
       <c r="Q18">
-        <v>188852</v>
+        <v>14471</v>
       </c>
       <c r="R18">
-        <v>139463</v>
+        <v>403</v>
       </c>
       <c r="S18" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="D19">
-        <v>7713084</v>
+        <v>174128795</v>
       </c>
       <c r="E19">
-        <v>7760543</v>
+        <v>174142288</v>
       </c>
       <c r="F19">
-        <v>47459</v>
+        <v>13493</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2284,60 +2286,60 @@
         <v>2</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J19">
         <v>3</v>
       </c>
       <c r="K19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L19" s="2">
-        <v>7680383</v>
+        <v>174128548</v>
       </c>
       <c r="M19" s="2">
-        <v>8043683</v>
+        <v>174964445</v>
       </c>
       <c r="N19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O19">
-        <v>7680383</v>
+        <v>174128548</v>
       </c>
       <c r="P19">
-        <v>363300</v>
+        <v>835897</v>
       </c>
       <c r="Q19">
-        <v>80160</v>
+        <v>13740</v>
       </c>
       <c r="R19">
-        <v>32701</v>
+        <v>247</v>
       </c>
       <c r="S19" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="D20">
-        <v>115469875</v>
+        <v>141370148</v>
       </c>
       <c r="E20">
-        <v>115516098</v>
+        <v>141358045</v>
       </c>
       <c r="F20">
-        <v>46223</v>
+        <v>12103</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2346,122 +2348,122 @@
         <v>2</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K20" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="L20" s="2">
-        <v>115420688</v>
+        <v>140742586</v>
       </c>
       <c r="M20" s="2">
-        <v>115748459</v>
+        <v>141468678</v>
       </c>
       <c r="N20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O20">
-        <v>115420688</v>
+        <v>141468678</v>
       </c>
       <c r="P20">
-        <v>327771</v>
+        <v>726092</v>
       </c>
       <c r="Q20">
-        <v>95410</v>
+        <v>110633</v>
       </c>
       <c r="R20">
-        <v>49187</v>
+        <v>98530</v>
       </c>
       <c r="S20" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21">
+        <v>29323247</v>
+      </c>
+      <c r="E21">
+        <v>29476233</v>
+      </c>
+      <c r="F21">
+        <v>152986</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
         <v>8</v>
       </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21">
-        <v>48353104</v>
-      </c>
-      <c r="E21">
-        <v>48395896</v>
-      </c>
-      <c r="F21">
-        <v>42792</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>7</v>
-      </c>
       <c r="J21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K21" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="L21" s="2">
-        <v>48173167</v>
+        <v>28390669</v>
       </c>
       <c r="M21" s="2">
-        <v>48648868</v>
+        <v>29809028</v>
       </c>
       <c r="N21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O21">
-        <v>48173167</v>
+        <v>28390669</v>
       </c>
       <c r="P21">
-        <v>475701</v>
+        <v>1418359</v>
       </c>
       <c r="Q21">
-        <v>222729</v>
+        <v>1085564</v>
       </c>
       <c r="R21">
-        <v>179937</v>
+        <v>932578</v>
       </c>
       <c r="S21" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D22">
-        <v>119251953</v>
+        <v>20584526</v>
       </c>
       <c r="E22">
-        <v>119209971</v>
+        <v>20456784</v>
       </c>
       <c r="F22">
-        <v>41982</v>
+        <v>127741</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2470,37 +2472,37 @@
         <v>2</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" t="s">
         <v>128</v>
       </c>
       <c r="L22" s="2">
-        <v>119201698</v>
+        <v>20341663</v>
       </c>
       <c r="M22" s="2">
-        <v>119634234</v>
+        <v>20622542</v>
       </c>
       <c r="N22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O22">
-        <v>119634234</v>
+        <v>20622542</v>
       </c>
       <c r="P22">
-        <v>432536</v>
+        <v>280879</v>
       </c>
       <c r="Q22">
-        <v>424263</v>
+        <v>165758</v>
       </c>
       <c r="R22">
-        <v>382281</v>
+        <v>38016</v>
       </c>
       <c r="S22" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="T22">
         <v>2</v>
@@ -2508,22 +2510,22 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D23">
-        <v>69323512</v>
+        <v>20582619</v>
       </c>
       <c r="E23">
-        <v>69364271</v>
+        <v>20456784</v>
       </c>
       <c r="F23">
-        <v>40759</v>
+        <v>125834</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2535,34 +2537,34 @@
         <v>4</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K23" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="L23" s="2">
-        <v>69063282</v>
+        <v>20341663</v>
       </c>
       <c r="M23" s="2">
-        <v>70258481</v>
+        <v>20622542</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O23">
-        <v>69063282</v>
+        <v>20622542</v>
       </c>
       <c r="P23">
-        <v>1195199</v>
+        <v>280879</v>
       </c>
       <c r="Q23">
-        <v>300989</v>
+        <v>165758</v>
       </c>
       <c r="R23">
-        <v>260230</v>
+        <v>39923</v>
       </c>
       <c r="S23" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="T23">
         <v>2</v>
@@ -2570,22 +2572,22 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D24">
-        <v>101633457</v>
+        <v>110588042</v>
       </c>
       <c r="E24">
-        <v>101671377</v>
+        <v>110679721</v>
       </c>
       <c r="F24">
-        <v>37920</v>
+        <v>91679</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2597,34 +2599,34 @@
         <v>4</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K24" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="L24" s="2">
-        <v>101459184</v>
+        <v>110559351</v>
       </c>
       <c r="M24" s="2">
-        <v>101927250</v>
+        <v>110830584</v>
       </c>
       <c r="N24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O24">
-        <v>101459184</v>
+        <v>110559351</v>
       </c>
       <c r="P24">
-        <v>468066</v>
+        <v>271233</v>
       </c>
       <c r="Q24">
-        <v>212193</v>
+        <v>120370</v>
       </c>
       <c r="R24">
-        <v>174273</v>
+        <v>28691</v>
       </c>
       <c r="S24" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="T24">
         <v>2</v>
@@ -2632,64 +2634,64 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D25">
-        <v>143412033</v>
+        <v>112811135</v>
       </c>
       <c r="E25">
-        <v>143374433</v>
+        <v>112898406</v>
       </c>
       <c r="F25">
-        <v>37600</v>
+        <v>87271</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>2</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>302</v>
       </c>
       <c r="J25">
-        <v>2</v>
-      </c>
-      <c r="K25" t="s">
-        <v>139</v>
+        <v>272</v>
+      </c>
+      <c r="K25">
+        <v>302272</v>
       </c>
       <c r="L25" s="2">
-        <v>142984064</v>
+        <v>112542589</v>
       </c>
       <c r="M25" s="2">
-        <v>143567373</v>
+        <v>112934792</v>
       </c>
       <c r="N25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O25">
-        <v>143567373</v>
+        <v>112542589</v>
       </c>
       <c r="P25">
-        <v>583309</v>
+        <v>392203</v>
       </c>
       <c r="Q25">
-        <v>192940</v>
+        <v>355817</v>
       </c>
       <c r="R25">
-        <v>155340</v>
+        <v>268546</v>
       </c>
       <c r="S25" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -2697,19 +2699,19 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D26">
-        <v>28490530</v>
+        <v>116655068</v>
       </c>
       <c r="E26">
-        <v>28527792</v>
+        <v>116738666</v>
       </c>
       <c r="F26">
-        <v>37262</v>
+        <v>83598</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2718,37 +2720,37 @@
         <v>2</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K26" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="L26" s="2">
-        <v>28338940</v>
+        <v>116593953</v>
       </c>
       <c r="M26" s="2">
-        <v>28865511</v>
+        <v>116738860</v>
       </c>
       <c r="N26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O26">
-        <v>28338940</v>
+        <v>116593953</v>
       </c>
       <c r="P26">
-        <v>526571</v>
+        <v>144907</v>
       </c>
       <c r="Q26">
-        <v>188852</v>
+        <v>144713</v>
       </c>
       <c r="R26">
-        <v>151590</v>
+        <v>61115</v>
       </c>
       <c r="S26" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="T26">
         <v>2</v>
@@ -2756,22 +2758,22 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D27">
-        <v>141357855</v>
+        <v>80689127</v>
       </c>
       <c r="E27">
-        <v>141321473</v>
+        <v>80772106</v>
       </c>
       <c r="F27">
-        <v>36382</v>
+        <v>82979</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2780,37 +2782,37 @@
         <v>2</v>
       </c>
       <c r="I27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K27" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="L27" s="2">
-        <v>140742586</v>
+        <v>79412357</v>
       </c>
       <c r="M27" s="2">
-        <v>141468678</v>
+        <v>80875986</v>
       </c>
       <c r="N27" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O27">
-        <v>141468678</v>
+        <v>79412357</v>
       </c>
       <c r="P27">
-        <v>726092</v>
+        <v>1463629</v>
       </c>
       <c r="Q27">
-        <v>147205</v>
+        <v>1359749</v>
       </c>
       <c r="R27">
-        <v>110823</v>
+        <v>1276770</v>
       </c>
       <c r="S27" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="T27">
         <v>2</v>
@@ -2821,19 +2823,19 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D28">
-        <v>8009438</v>
+        <v>36990681</v>
       </c>
       <c r="E28">
-        <v>8043537</v>
+        <v>36934622</v>
       </c>
       <c r="F28">
-        <v>34100</v>
+        <v>56058</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2842,34 +2844,34 @@
         <v>2</v>
       </c>
       <c r="I28">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="J28">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K28" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="L28" s="2">
-        <v>7680383</v>
+        <v>36893966</v>
       </c>
       <c r="M28" s="2">
-        <v>8043683</v>
+        <v>37488852</v>
       </c>
       <c r="N28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O28">
-        <v>7680383</v>
+        <v>37488852</v>
       </c>
       <c r="P28">
-        <v>363300</v>
+        <v>594886</v>
       </c>
       <c r="Q28">
-        <v>363154</v>
+        <v>554230</v>
       </c>
       <c r="R28">
-        <v>329055</v>
+        <v>498171</v>
       </c>
       <c r="S28" t="s">
         <v>177</v>
@@ -2880,87 +2882,87 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D29">
-        <v>174128795</v>
+        <v>144670514</v>
       </c>
       <c r="E29">
-        <v>174162735</v>
+        <v>144724258</v>
       </c>
       <c r="F29">
-        <v>33940</v>
+        <v>53744</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>2</v>
       </c>
       <c r="I29">
+        <v>13</v>
+      </c>
+      <c r="J29">
         <v>11</v>
       </c>
-      <c r="J29">
-        <v>7</v>
-      </c>
       <c r="K29" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L29" s="2">
-        <v>174128548</v>
+        <v>144606837</v>
       </c>
       <c r="M29" s="2">
-        <v>174964445</v>
+        <v>145174170</v>
       </c>
       <c r="N29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O29">
-        <v>174128548</v>
+        <v>144606837</v>
       </c>
       <c r="P29">
-        <v>835897</v>
+        <v>567333</v>
       </c>
       <c r="Q29">
-        <v>34187</v>
+        <v>117421</v>
       </c>
       <c r="R29">
-        <v>247</v>
+        <v>63677</v>
       </c>
       <c r="S29" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D30">
-        <v>65024410</v>
+        <v>28478403</v>
       </c>
       <c r="E30">
-        <v>64991550</v>
+        <v>28527792</v>
       </c>
       <c r="F30">
-        <v>32860</v>
+        <v>49390</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -2969,57 +2971,57 @@
         <v>3</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L30" s="2">
-        <v>64926981</v>
+        <v>28338940</v>
       </c>
       <c r="M30" s="2">
-        <v>65281610</v>
+        <v>28865511</v>
       </c>
       <c r="N30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O30">
-        <v>65281610</v>
+        <v>28338940</v>
       </c>
       <c r="P30">
-        <v>354629</v>
+        <v>526571</v>
       </c>
       <c r="Q30">
-        <v>290060</v>
+        <v>188852</v>
       </c>
       <c r="R30">
-        <v>257200</v>
+        <v>139463</v>
       </c>
       <c r="S30" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D31">
-        <v>76042718</v>
+        <v>119251953</v>
       </c>
       <c r="E31">
-        <v>76074424</v>
+        <v>119209971</v>
       </c>
       <c r="F31">
-        <v>31706</v>
+        <v>41982</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3028,37 +3030,37 @@
         <v>2</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L31" s="2">
-        <v>75910943</v>
+        <v>119201698</v>
       </c>
       <c r="M31" s="2">
-        <v>76469061</v>
+        <v>119634234</v>
       </c>
       <c r="N31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O31">
-        <v>75910943</v>
+        <v>119634234</v>
       </c>
       <c r="P31">
-        <v>558118</v>
+        <v>432536</v>
       </c>
       <c r="Q31">
-        <v>163481</v>
+        <v>424263</v>
       </c>
       <c r="R31">
-        <v>131775</v>
+        <v>382281</v>
       </c>
       <c r="S31" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="T31">
         <v>2</v>
@@ -3066,22 +3068,22 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D32">
-        <v>72400477</v>
+        <v>69323512</v>
       </c>
       <c r="E32">
-        <v>72431488</v>
+        <v>69364271</v>
       </c>
       <c r="F32">
-        <v>31011</v>
+        <v>40759</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3090,37 +3092,37 @@
         <v>2</v>
       </c>
       <c r="I32">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J32">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K32" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L32" s="2">
-        <v>72399156</v>
+        <v>69063282</v>
       </c>
       <c r="M32" s="2">
-        <v>73033237</v>
+        <v>70258481</v>
       </c>
       <c r="N32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O32">
-        <v>72399156</v>
+        <v>69063282</v>
       </c>
       <c r="P32">
-        <v>634081</v>
+        <v>1195199</v>
       </c>
       <c r="Q32">
-        <v>32332</v>
+        <v>300989</v>
       </c>
       <c r="R32">
-        <v>1321</v>
+        <v>260230</v>
       </c>
       <c r="S32" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="T32">
         <v>2</v>
@@ -3131,143 +3133,143 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D33">
-        <v>111161368</v>
+        <v>101633457</v>
       </c>
       <c r="E33">
-        <v>111132570</v>
+        <v>101671377</v>
       </c>
       <c r="F33">
-        <v>28798</v>
+        <v>37920</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K33" t="s">
         <v>139</v>
       </c>
       <c r="L33" s="2">
-        <v>110303107</v>
+        <v>101459184</v>
       </c>
       <c r="M33" s="2">
-        <v>111202573</v>
+        <v>101927250</v>
       </c>
       <c r="N33" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O33">
-        <v>111202573</v>
+        <v>101459184</v>
       </c>
       <c r="P33">
-        <v>899466</v>
+        <v>468066</v>
       </c>
       <c r="Q33">
-        <v>70003</v>
+        <v>212193</v>
       </c>
       <c r="R33">
-        <v>41205</v>
+        <v>174273</v>
       </c>
       <c r="S33" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="T33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D34">
-        <v>23999911</v>
+        <v>28490530</v>
       </c>
       <c r="E34">
-        <v>24026598</v>
+        <v>28527792</v>
       </c>
       <c r="F34">
-        <v>26687</v>
+        <v>37262</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>2</v>
       </c>
       <c r="I34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K34" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L34" s="2">
-        <v>23847267</v>
+        <v>28338940</v>
       </c>
       <c r="M34" s="2">
-        <v>24231932</v>
+        <v>28865511</v>
       </c>
       <c r="N34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O34">
-        <v>23847267</v>
+        <v>28338940</v>
       </c>
       <c r="P34">
-        <v>384665</v>
+        <v>526571</v>
       </c>
       <c r="Q34">
-        <v>179331</v>
+        <v>188852</v>
       </c>
       <c r="R34">
-        <v>152644</v>
+        <v>151590</v>
       </c>
       <c r="S34" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D35">
-        <v>174162822</v>
+        <v>141357855</v>
       </c>
       <c r="E35">
-        <v>174188262</v>
+        <v>141321473</v>
       </c>
       <c r="F35">
-        <v>25440</v>
+        <v>36382</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3276,37 +3278,37 @@
         <v>2</v>
       </c>
       <c r="I35">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="L35" s="2">
-        <v>174128548</v>
+        <v>140742586</v>
       </c>
       <c r="M35" s="2">
-        <v>174964445</v>
+        <v>141468678</v>
       </c>
       <c r="N35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O35">
-        <v>174128548</v>
+        <v>141468678</v>
       </c>
       <c r="P35">
-        <v>835897</v>
+        <v>726092</v>
       </c>
       <c r="Q35">
-        <v>59714</v>
+        <v>147205</v>
       </c>
       <c r="R35">
-        <v>34274</v>
+        <v>110823</v>
       </c>
       <c r="S35" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="T35">
         <v>2</v>
@@ -3314,22 +3316,22 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D36">
-        <v>189737772</v>
+        <v>8009438</v>
       </c>
       <c r="E36">
-        <v>189713231</v>
+        <v>8043537</v>
       </c>
       <c r="F36">
-        <v>24541</v>
+        <v>34100</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3338,37 +3340,37 @@
         <v>2</v>
       </c>
       <c r="I36">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K36" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="L36" s="2">
-        <v>189674517</v>
+        <v>7680383</v>
       </c>
       <c r="M36" s="2">
-        <v>189840226</v>
+        <v>8043683</v>
       </c>
       <c r="N36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O36">
-        <v>189840226</v>
+        <v>7680383</v>
       </c>
       <c r="P36">
-        <v>165709</v>
+        <v>363300</v>
       </c>
       <c r="Q36">
-        <v>126995</v>
+        <v>363154</v>
       </c>
       <c r="R36">
-        <v>102454</v>
+        <v>329055</v>
       </c>
       <c r="S36" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="T36">
         <v>2</v>
@@ -3379,19 +3381,19 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D37">
-        <v>12571944</v>
+        <v>76042718</v>
       </c>
       <c r="E37">
-        <v>12595223</v>
+        <v>76074424</v>
       </c>
       <c r="F37">
-        <v>23279</v>
+        <v>31706</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3400,37 +3402,37 @@
         <v>2</v>
       </c>
       <c r="I37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="L37" s="2">
-        <v>12391481</v>
+        <v>75910943</v>
       </c>
       <c r="M37" s="2">
-        <v>12877545</v>
+        <v>76469061</v>
       </c>
       <c r="N37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O37">
-        <v>12391481</v>
+        <v>75910943</v>
       </c>
       <c r="P37">
-        <v>486064</v>
+        <v>558118</v>
       </c>
       <c r="Q37">
-        <v>203742</v>
+        <v>163481</v>
       </c>
       <c r="R37">
-        <v>180463</v>
+        <v>131775</v>
       </c>
       <c r="S37" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="T37">
         <v>2</v>
@@ -3438,250 +3440,250 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D38">
-        <v>127533298</v>
+        <v>72400477</v>
       </c>
       <c r="E38">
-        <v>127510970</v>
+        <v>72431488</v>
       </c>
       <c r="F38">
-        <v>22328</v>
+        <v>31011</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>2</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K38" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="L38" s="2">
-        <v>127279554</v>
+        <v>72399156</v>
       </c>
       <c r="M38" s="2">
-        <v>127533589</v>
+        <v>73033237</v>
       </c>
       <c r="N38" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O38">
-        <v>127533589</v>
+        <v>72399156</v>
       </c>
       <c r="P38">
-        <v>254035</v>
+        <v>634081</v>
       </c>
       <c r="Q38">
-        <v>22619</v>
+        <v>32332</v>
       </c>
       <c r="R38">
-        <v>291</v>
+        <v>1321</v>
       </c>
       <c r="S38" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="T38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D39">
-        <v>17564290</v>
+        <v>174162822</v>
       </c>
       <c r="E39">
-        <v>17543204</v>
+        <v>174188262</v>
       </c>
       <c r="F39">
-        <v>21086</v>
+        <v>25440</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>2</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K39" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="L39" s="2">
-        <v>17195626</v>
+        <v>174128548</v>
       </c>
       <c r="M39" s="2">
-        <v>17564738</v>
+        <v>174964445</v>
       </c>
       <c r="N39" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O39">
-        <v>17564738</v>
+        <v>174128548</v>
       </c>
       <c r="P39">
-        <v>369112</v>
+        <v>835897</v>
       </c>
       <c r="Q39">
-        <v>21534</v>
+        <v>59714</v>
       </c>
       <c r="R39">
-        <v>448</v>
+        <v>34274</v>
       </c>
       <c r="S39" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="T39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D40">
-        <v>120083041</v>
+        <v>189737772</v>
       </c>
       <c r="E40">
-        <v>120104093</v>
+        <v>189713231</v>
       </c>
       <c r="F40">
-        <v>21052</v>
+        <v>24541</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>2</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L40" s="2">
-        <v>119913722</v>
+        <v>189674517</v>
       </c>
       <c r="M40" s="2">
-        <v>120390385</v>
+        <v>189840226</v>
       </c>
       <c r="N40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O40">
-        <v>119913722</v>
+        <v>189840226</v>
       </c>
       <c r="P40">
-        <v>476663</v>
+        <v>165709</v>
       </c>
       <c r="Q40">
-        <v>190371</v>
+        <v>126995</v>
       </c>
       <c r="R40">
-        <v>169319</v>
+        <v>102454</v>
       </c>
       <c r="S40" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D41">
-        <v>22623274</v>
+        <v>12571944</v>
       </c>
       <c r="E41">
-        <v>22602254</v>
+        <v>12595223</v>
       </c>
       <c r="F41">
-        <v>21020</v>
+        <v>23279</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>2</v>
       </c>
       <c r="I41">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K41" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="L41" s="2">
-        <v>22570764</v>
+        <v>12391481</v>
       </c>
       <c r="M41" s="2">
-        <v>22857513</v>
+        <v>12877545</v>
       </c>
       <c r="N41" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O41">
-        <v>22857513</v>
+        <v>12391481</v>
       </c>
       <c r="P41">
-        <v>286749</v>
+        <v>486064</v>
       </c>
       <c r="Q41">
-        <v>255259</v>
+        <v>203742</v>
       </c>
       <c r="R41">
-        <v>234239</v>
+        <v>180463</v>
       </c>
       <c r="S41" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="T41">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -3692,7 +3694,7 @@
         <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D42">
         <v>174221911</v>
@@ -3716,7 +3718,7 @@
         <v>2</v>
       </c>
       <c r="K42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L42" s="2">
         <v>174128548</v>
@@ -3725,7 +3727,7 @@
         <v>174964445</v>
       </c>
       <c r="N42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O42">
         <v>174128548</v>
@@ -3740,7 +3742,7 @@
         <v>93363</v>
       </c>
       <c r="S42" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="T42">
         <v>2</v>
@@ -3754,7 +3756,7 @@
         <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D43">
         <v>69345654</v>
@@ -3778,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L43" s="2">
         <v>69063282</v>
@@ -3787,7 +3789,7 @@
         <v>70258481</v>
       </c>
       <c r="N43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O43">
         <v>69063282</v>
@@ -3802,7 +3804,7 @@
         <v>282372</v>
       </c>
       <c r="S43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="T43">
         <v>2</v>
@@ -3816,7 +3818,7 @@
         <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D44">
         <v>72413289</v>
@@ -3840,7 +3842,7 @@
         <v>5</v>
       </c>
       <c r="K44" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L44" s="2">
         <v>72399156</v>
@@ -3849,7 +3851,7 @@
         <v>73033237</v>
       </c>
       <c r="N44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O44">
         <v>72399156</v>
@@ -3864,7 +3866,7 @@
         <v>14133</v>
       </c>
       <c r="S44" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="T44">
         <v>2</v>
@@ -3872,518 +3874,518 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D45">
-        <v>37188455</v>
+        <v>80757620</v>
       </c>
       <c r="E45">
-        <v>37206379</v>
+        <v>80772106</v>
       </c>
       <c r="F45">
-        <v>17924</v>
+        <v>14486</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
         <v>2</v>
       </c>
       <c r="I45">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J45">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="L45" s="2">
-        <v>37120536</v>
+        <v>79412357</v>
       </c>
       <c r="M45" s="2">
-        <v>37358146</v>
+        <v>80875986</v>
       </c>
       <c r="N45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O45">
-        <v>37120536</v>
+        <v>79412357</v>
       </c>
       <c r="P45">
-        <v>237610</v>
+        <v>1463629</v>
       </c>
       <c r="Q45">
-        <v>85843</v>
+        <v>1359749</v>
       </c>
       <c r="R45">
-        <v>67919</v>
+        <v>1345263</v>
       </c>
       <c r="S45" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D46">
-        <v>119915801</v>
+        <v>174173995</v>
       </c>
       <c r="E46">
-        <v>119933561</v>
+        <v>174188262</v>
       </c>
       <c r="F46">
-        <v>17760</v>
+        <v>14267</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46">
         <v>2</v>
       </c>
       <c r="I46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K46" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="L46" s="2">
-        <v>119913722</v>
+        <v>174128548</v>
       </c>
       <c r="M46" s="2">
-        <v>120390385</v>
+        <v>174964445</v>
       </c>
       <c r="N46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O46">
-        <v>119913722</v>
+        <v>174128548</v>
       </c>
       <c r="P46">
-        <v>476663</v>
+        <v>835897</v>
       </c>
       <c r="Q46">
-        <v>19839</v>
+        <v>59714</v>
       </c>
       <c r="R46">
-        <v>2079</v>
+        <v>45447</v>
       </c>
       <c r="S46" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="T46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D47">
-        <v>37126939</v>
+        <v>80758106</v>
       </c>
       <c r="E47">
-        <v>37144631</v>
+        <v>80772106</v>
       </c>
       <c r="F47">
-        <v>17692</v>
+        <v>14000</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47">
         <v>2</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K47" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="L47" s="2">
-        <v>37120536</v>
+        <v>79412357</v>
       </c>
       <c r="M47" s="2">
-        <v>37358146</v>
+        <v>80875986</v>
       </c>
       <c r="N47" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O47">
-        <v>37120536</v>
+        <v>79412357</v>
       </c>
       <c r="P47">
-        <v>237610</v>
+        <v>1463629</v>
       </c>
       <c r="Q47">
-        <v>24095</v>
+        <v>1359749</v>
       </c>
       <c r="R47">
-        <v>6403</v>
+        <v>1345749</v>
       </c>
       <c r="S47" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="T47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D48">
-        <v>93410350</v>
+        <v>115585312</v>
       </c>
       <c r="E48">
-        <v>93392908</v>
+        <v>115571464</v>
       </c>
       <c r="F48">
-        <v>17442</v>
+        <v>13848</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48">
         <v>2</v>
       </c>
       <c r="I48">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K48" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="L48" s="2">
-        <v>92953775</v>
+        <v>115521210</v>
       </c>
       <c r="M48" s="2">
-        <v>93447404</v>
+        <v>116858236</v>
       </c>
       <c r="N48" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O48">
-        <v>93447404</v>
+        <v>116858236</v>
       </c>
       <c r="P48">
-        <v>493629</v>
+        <v>1337026</v>
       </c>
       <c r="Q48">
-        <v>54496</v>
+        <v>1286772</v>
       </c>
       <c r="R48">
-        <v>37054</v>
+        <v>1272924</v>
       </c>
       <c r="S48" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="T48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D49">
-        <v>69604890</v>
+        <v>80758645</v>
       </c>
       <c r="E49">
-        <v>69621966</v>
+        <v>80772106</v>
       </c>
       <c r="F49">
-        <v>17076</v>
+        <v>13461</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K49" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L49" s="2">
-        <v>69063282</v>
+        <v>79412357</v>
       </c>
       <c r="M49" s="2">
-        <v>70258481</v>
+        <v>80875986</v>
       </c>
       <c r="N49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O49">
-        <v>69063282</v>
+        <v>79412357</v>
       </c>
       <c r="P49">
-        <v>1195199</v>
+        <v>1463629</v>
       </c>
       <c r="Q49">
-        <v>558684</v>
+        <v>1359749</v>
       </c>
       <c r="R49">
-        <v>541608</v>
+        <v>1346288</v>
       </c>
       <c r="S49" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="T49">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D50">
-        <v>174274265</v>
+        <v>38282473</v>
       </c>
       <c r="E50">
-        <v>174289640</v>
+        <v>38269431</v>
       </c>
       <c r="F50">
-        <v>15375</v>
+        <v>13042</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50">
         <v>2</v>
       </c>
       <c r="I50">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K50" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="L50" s="2">
-        <v>174128548</v>
+        <v>38123189</v>
       </c>
       <c r="M50" s="2">
-        <v>174964445</v>
+        <v>38362536</v>
       </c>
       <c r="N50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O50">
-        <v>174128548</v>
+        <v>38362536</v>
       </c>
       <c r="P50">
-        <v>835897</v>
+        <v>239347</v>
       </c>
       <c r="Q50">
-        <v>161092</v>
+        <v>93105</v>
       </c>
       <c r="R50">
-        <v>145717</v>
+        <v>80063</v>
       </c>
       <c r="S50" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="T50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D51">
-        <v>119695655</v>
+        <v>80760030</v>
       </c>
       <c r="E51">
-        <v>119680420</v>
+        <v>80772106</v>
       </c>
       <c r="F51">
-        <v>15235</v>
+        <v>12076</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
         <v>2</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="L51" s="2">
-        <v>119187504</v>
+        <v>79412357</v>
       </c>
       <c r="M51" s="2">
-        <v>120177348</v>
+        <v>80875986</v>
       </c>
       <c r="N51" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O51">
-        <v>120177348</v>
+        <v>79412357</v>
       </c>
       <c r="P51">
-        <v>989844</v>
+        <v>1463629</v>
       </c>
       <c r="Q51">
-        <v>496928</v>
+        <v>1359749</v>
       </c>
       <c r="R51">
-        <v>481693</v>
+        <v>1347673</v>
       </c>
       <c r="S51" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D52">
-        <v>1166892</v>
+        <v>171043885</v>
       </c>
       <c r="E52">
-        <v>1152339</v>
+        <v>171055717</v>
       </c>
       <c r="F52">
-        <v>14553</v>
+        <v>11832</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52">
         <v>2</v>
       </c>
       <c r="I52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K52" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L52" s="2">
-        <v>1036622</v>
+        <v>171034655</v>
       </c>
       <c r="M52" s="2">
-        <v>1177896</v>
+        <v>171511681</v>
       </c>
       <c r="N52" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O52">
-        <v>1177896</v>
+        <v>171034655</v>
       </c>
       <c r="P52">
-        <v>141274</v>
+        <v>477026</v>
       </c>
       <c r="Q52">
-        <v>25557</v>
+        <v>21062</v>
       </c>
       <c r="R52">
-        <v>11004</v>
+        <v>9230</v>
       </c>
       <c r="S52" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="T52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D53">
-        <v>80757620</v>
+        <v>142405419</v>
       </c>
       <c r="E53">
-        <v>80772106</v>
+        <v>142416760</v>
       </c>
       <c r="F53">
-        <v>14486</v>
+        <v>11341</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -4392,37 +4394,37 @@
         <v>2</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K53" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="L53" s="2">
-        <v>79412357</v>
+        <v>142149942</v>
       </c>
       <c r="M53" s="2">
-        <v>80875986</v>
+        <v>142608576</v>
       </c>
       <c r="N53" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O53">
-        <v>79412357</v>
+        <v>142149942</v>
       </c>
       <c r="P53">
-        <v>1463629</v>
+        <v>458634</v>
       </c>
       <c r="Q53">
-        <v>1359749</v>
+        <v>266818</v>
       </c>
       <c r="R53">
-        <v>1345263</v>
+        <v>255477</v>
       </c>
       <c r="S53" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="T53">
         <v>2</v>
@@ -4430,149 +4432,149 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D54">
-        <v>25450125</v>
+        <v>38080477</v>
       </c>
       <c r="E54">
-        <v>25435832</v>
+        <v>38091552</v>
       </c>
       <c r="F54">
-        <v>14293</v>
+        <v>11075</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>2</v>
       </c>
       <c r="I54">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J54">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K54" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L54" s="2">
-        <v>25061854</v>
+        <v>37892708</v>
       </c>
       <c r="M54" s="2">
-        <v>25452491</v>
+        <v>38140796</v>
       </c>
       <c r="N54" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O54">
-        <v>25452491</v>
+        <v>37892708</v>
       </c>
       <c r="P54">
-        <v>390637</v>
+        <v>248088</v>
       </c>
       <c r="Q54">
-        <v>16659</v>
+        <v>198844</v>
       </c>
       <c r="R54">
-        <v>2366</v>
+        <v>187769</v>
       </c>
       <c r="S54" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="T54">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="D55">
-        <v>174173995</v>
+        <v>116655068</v>
       </c>
       <c r="E55">
-        <v>174188262</v>
+        <v>116730802</v>
       </c>
       <c r="F55">
-        <v>14267</v>
+        <v>75734</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>2</v>
       </c>
       <c r="I55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J55">
         <v>2</v>
       </c>
       <c r="K55" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="L55" s="2">
-        <v>174128548</v>
+        <v>116593953</v>
       </c>
       <c r="M55" s="2">
-        <v>174964445</v>
+        <v>116738860</v>
       </c>
       <c r="N55" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O55">
-        <v>174128548</v>
+        <v>116593953</v>
       </c>
       <c r="P55">
-        <v>835897</v>
+        <v>144907</v>
       </c>
       <c r="Q55">
-        <v>59714</v>
+        <v>136849</v>
       </c>
       <c r="R55">
-        <v>45447</v>
+        <v>61115</v>
       </c>
       <c r="S55" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="T55">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="D56">
-        <v>59664696</v>
+        <v>7715839</v>
       </c>
       <c r="E56">
-        <v>59650628</v>
+        <v>7787624</v>
       </c>
       <c r="F56">
-        <v>14068</v>
+        <v>71785</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -4584,155 +4586,155 @@
         <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L56" s="2">
-        <v>59424633</v>
+        <v>7680383</v>
       </c>
       <c r="M56" s="2">
-        <v>59665099</v>
+        <v>8043683</v>
       </c>
       <c r="N56" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O56">
-        <v>59665099</v>
+        <v>7680383</v>
       </c>
       <c r="P56">
-        <v>240466</v>
+        <v>363300</v>
       </c>
       <c r="Q56">
-        <v>14471</v>
+        <v>107241</v>
       </c>
       <c r="R56">
-        <v>403</v>
+        <v>35456</v>
       </c>
       <c r="S56" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="T56">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="D57">
-        <v>80758106</v>
+        <v>37188455</v>
       </c>
       <c r="E57">
-        <v>80772106</v>
+        <v>37247066</v>
       </c>
       <c r="F57">
-        <v>14000</v>
+        <v>58611</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
       <c r="I57">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J57">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="L57" s="2">
-        <v>79412357</v>
+        <v>37120536</v>
       </c>
       <c r="M57" s="2">
-        <v>80875986</v>
+        <v>37358146</v>
       </c>
       <c r="N57" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O57">
-        <v>79412357</v>
+        <v>37120536</v>
       </c>
       <c r="P57">
-        <v>1463629</v>
+        <v>237610</v>
       </c>
       <c r="Q57">
-        <v>1359749</v>
+        <v>126530</v>
       </c>
       <c r="R57">
-        <v>1345749</v>
+        <v>67919</v>
       </c>
       <c r="S57" t="s">
         <v>176</v>
       </c>
       <c r="T57">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="D58">
-        <v>60178180</v>
+        <v>7713084</v>
       </c>
       <c r="E58">
-        <v>60164306</v>
+        <v>7760543</v>
       </c>
       <c r="F58">
-        <v>13874</v>
+        <v>47459</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K58" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="L58" s="2">
-        <v>59735036</v>
+        <v>7680383</v>
       </c>
       <c r="M58" s="2">
-        <v>61237133</v>
+        <v>8043683</v>
       </c>
       <c r="N58" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O58">
-        <v>61237133</v>
+        <v>7680383</v>
       </c>
       <c r="P58">
-        <v>1502097</v>
+        <v>363300</v>
       </c>
       <c r="Q58">
-        <v>1072827</v>
+        <v>80160</v>
       </c>
       <c r="R58">
-        <v>1058953</v>
+        <v>32701</v>
       </c>
       <c r="S58" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="T58">
         <v>3</v>
@@ -4740,25 +4742,25 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="D59">
-        <v>115585312</v>
+        <v>115469875</v>
       </c>
       <c r="E59">
-        <v>115571464</v>
+        <v>115516098</v>
       </c>
       <c r="F59">
-        <v>13848</v>
+        <v>46223</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -4770,54 +4772,54 @@
         <v>2</v>
       </c>
       <c r="K59" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L59" s="2">
-        <v>115521210</v>
+        <v>115420688</v>
       </c>
       <c r="M59" s="2">
-        <v>116858236</v>
+        <v>115748459</v>
       </c>
       <c r="N59" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O59">
-        <v>116858236</v>
+        <v>115420688</v>
       </c>
       <c r="P59">
-        <v>1337026</v>
+        <v>327771</v>
       </c>
       <c r="Q59">
-        <v>1286772</v>
+        <v>95410</v>
       </c>
       <c r="R59">
-        <v>1272924</v>
+        <v>49187</v>
       </c>
       <c r="S59" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="T59">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D60">
-        <v>174128795</v>
+        <v>23999911</v>
       </c>
       <c r="E60">
-        <v>174142288</v>
+        <v>24026598</v>
       </c>
       <c r="F60">
-        <v>13493</v>
+        <v>26687</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -4826,63 +4828,63 @@
         <v>2</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K60" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L60" s="2">
-        <v>174128548</v>
+        <v>23847267</v>
       </c>
       <c r="M60" s="2">
-        <v>174964445</v>
+        <v>24231932</v>
       </c>
       <c r="N60" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O60">
-        <v>174128548</v>
+        <v>23847267</v>
       </c>
       <c r="P60">
-        <v>835897</v>
+        <v>384665</v>
       </c>
       <c r="Q60">
-        <v>13740</v>
+        <v>179331</v>
       </c>
       <c r="R60">
-        <v>247</v>
+        <v>152644</v>
       </c>
       <c r="S60" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="T60">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C61" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D61">
-        <v>80758645</v>
+        <v>120083041</v>
       </c>
       <c r="E61">
-        <v>80772106</v>
+        <v>120104093</v>
       </c>
       <c r="F61">
-        <v>13461</v>
+        <v>21052</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -4891,57 +4893,57 @@
         <v>4</v>
       </c>
       <c r="J61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="L61" s="2">
-        <v>79412357</v>
+        <v>119913722</v>
       </c>
       <c r="M61" s="2">
-        <v>80875986</v>
+        <v>120390385</v>
       </c>
       <c r="N61" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O61">
-        <v>79412357</v>
+        <v>119913722</v>
       </c>
       <c r="P61">
-        <v>1463629</v>
+        <v>476663</v>
       </c>
       <c r="Q61">
-        <v>1359749</v>
+        <v>190371</v>
       </c>
       <c r="R61">
-        <v>1346288</v>
+        <v>169319</v>
       </c>
       <c r="S61" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="T61">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C62" t="s">
-        <v>117</v>
+        <v>219</v>
       </c>
       <c r="D62">
-        <v>87499272</v>
+        <v>22623274</v>
       </c>
       <c r="E62">
-        <v>87512439</v>
+        <v>22602254</v>
       </c>
       <c r="F62">
-        <v>13167</v>
+        <v>21020</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -4950,37 +4952,37 @@
         <v>2</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K62" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="L62" s="2">
-        <v>87380331</v>
+        <v>22570764</v>
       </c>
       <c r="M62" s="2">
-        <v>87575681</v>
+        <v>22857513</v>
       </c>
       <c r="N62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O62">
-        <v>87380331</v>
+        <v>22857513</v>
       </c>
       <c r="P62">
-        <v>195350</v>
+        <v>286749</v>
       </c>
       <c r="Q62">
-        <v>132108</v>
+        <v>255259</v>
       </c>
       <c r="R62">
-        <v>118941</v>
+        <v>234239</v>
       </c>
       <c r="S62" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="T62">
         <v>3</v>
@@ -4988,22 +4990,22 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D63">
-        <v>87499272</v>
+        <v>37188455</v>
       </c>
       <c r="E63">
-        <v>87512439</v>
+        <v>37206379</v>
       </c>
       <c r="F63">
-        <v>13167</v>
+        <v>17924</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5012,37 +5014,37 @@
         <v>2</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J63">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K63" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="L63" s="2">
-        <v>87458692</v>
+        <v>37120536</v>
       </c>
       <c r="M63" s="2">
-        <v>87634887</v>
+        <v>37358146</v>
       </c>
       <c r="N63" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O63">
-        <v>87458692</v>
+        <v>37120536</v>
       </c>
       <c r="P63">
-        <v>176195</v>
+        <v>237610</v>
       </c>
       <c r="Q63">
-        <v>53747</v>
+        <v>85843</v>
       </c>
       <c r="R63">
-        <v>40580</v>
+        <v>67919</v>
       </c>
       <c r="S63" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="T63">
         <v>3</v>
@@ -5050,211 +5052,211 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D64">
-        <v>38282473</v>
+        <v>69604890</v>
       </c>
       <c r="E64">
-        <v>38269431</v>
+        <v>69621966</v>
       </c>
       <c r="F64">
-        <v>13042</v>
+        <v>17076</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <v>2</v>
       </c>
       <c r="I64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J64">
         <v>2</v>
       </c>
       <c r="K64" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="L64" s="2">
-        <v>38123189</v>
+        <v>69063282</v>
       </c>
       <c r="M64" s="2">
-        <v>38362536</v>
+        <v>70258481</v>
       </c>
       <c r="N64" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O64">
-        <v>38362536</v>
+        <v>69063282</v>
       </c>
       <c r="P64">
-        <v>239347</v>
+        <v>1195199</v>
       </c>
       <c r="Q64">
-        <v>93105</v>
+        <v>558684</v>
       </c>
       <c r="R64">
-        <v>80063</v>
+        <v>541608</v>
       </c>
       <c r="S64" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="T64">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C65" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D65">
-        <v>141370148</v>
+        <v>119695655</v>
       </c>
       <c r="E65">
-        <v>141358045</v>
+        <v>119680420</v>
       </c>
       <c r="F65">
-        <v>12103</v>
+        <v>15235</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <v>2</v>
       </c>
       <c r="I65">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L65" s="2">
-        <v>140742586</v>
+        <v>119187504</v>
       </c>
       <c r="M65" s="2">
-        <v>141468678</v>
+        <v>120177348</v>
       </c>
       <c r="N65" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O65">
-        <v>141468678</v>
+        <v>120177348</v>
       </c>
       <c r="P65">
-        <v>726092</v>
+        <v>989844</v>
       </c>
       <c r="Q65">
-        <v>110633</v>
+        <v>496928</v>
       </c>
       <c r="R65">
-        <v>98530</v>
+        <v>481693</v>
       </c>
       <c r="S65" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="T65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C66" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D66">
-        <v>80760030</v>
+        <v>25450125</v>
       </c>
       <c r="E66">
-        <v>80772106</v>
+        <v>25435832</v>
       </c>
       <c r="F66">
-        <v>12076</v>
+        <v>14293</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>2</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K66" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="L66" s="2">
-        <v>79412357</v>
+        <v>25061854</v>
       </c>
       <c r="M66" s="2">
-        <v>80875986</v>
+        <v>25452491</v>
       </c>
       <c r="N66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O66">
-        <v>79412357</v>
+        <v>25452491</v>
       </c>
       <c r="P66">
-        <v>1463629</v>
+        <v>390637</v>
       </c>
       <c r="Q66">
-        <v>1359749</v>
+        <v>16659</v>
       </c>
       <c r="R66">
-        <v>1347673</v>
+        <v>2366</v>
       </c>
       <c r="S66" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="T66">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C67" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D67">
-        <v>171043885</v>
+        <v>60178180</v>
       </c>
       <c r="E67">
-        <v>171055717</v>
+        <v>60164306</v>
       </c>
       <c r="F67">
-        <v>11832</v>
+        <v>13874</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -5263,161 +5265,161 @@
         <v>3</v>
       </c>
       <c r="J67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="L67" s="2">
-        <v>171034655</v>
+        <v>59735036</v>
       </c>
       <c r="M67" s="2">
-        <v>171511681</v>
+        <v>61237133</v>
       </c>
       <c r="N67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O67">
-        <v>171034655</v>
+        <v>61237133</v>
       </c>
       <c r="P67">
-        <v>477026</v>
+        <v>1502097</v>
       </c>
       <c r="Q67">
-        <v>21062</v>
+        <v>1072827</v>
       </c>
       <c r="R67">
-        <v>9230</v>
+        <v>1058953</v>
       </c>
       <c r="S67" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="T67">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D68">
-        <v>142405419</v>
+        <v>87499272</v>
       </c>
       <c r="E68">
-        <v>142416760</v>
+        <v>87512439</v>
       </c>
       <c r="F68">
-        <v>11341</v>
+        <v>13167</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J68">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K68" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="L68" s="2">
-        <v>142149942</v>
+        <v>87380331</v>
       </c>
       <c r="M68" s="2">
-        <v>142608576</v>
+        <v>87575681</v>
       </c>
       <c r="N68" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O68">
-        <v>142149942</v>
+        <v>87380331</v>
       </c>
       <c r="P68">
-        <v>458634</v>
+        <v>195350</v>
       </c>
       <c r="Q68">
-        <v>266818</v>
+        <v>132108</v>
       </c>
       <c r="R68">
-        <v>255477</v>
+        <v>118941</v>
       </c>
       <c r="S68" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="T68">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C69" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D69">
-        <v>38080477</v>
+        <v>87499272</v>
       </c>
       <c r="E69">
-        <v>38091552</v>
+        <v>87512439</v>
       </c>
       <c r="F69">
-        <v>11075</v>
+        <v>13167</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <v>2</v>
       </c>
       <c r="I69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K69" t="s">
+        <v>142</v>
+      </c>
+      <c r="L69" s="2">
+        <v>87458692</v>
+      </c>
+      <c r="M69" s="2">
+        <v>87634887</v>
+      </c>
+      <c r="N69" t="s">
         <v>161</v>
       </c>
-      <c r="L69" s="2">
-        <v>37892708</v>
-      </c>
-      <c r="M69" s="2">
-        <v>38140796</v>
-      </c>
-      <c r="N69" t="s">
-        <v>163</v>
-      </c>
       <c r="O69">
-        <v>37892708</v>
+        <v>87458692</v>
       </c>
       <c r="P69">
-        <v>248088</v>
+        <v>176195</v>
       </c>
       <c r="Q69">
-        <v>198844</v>
+        <v>53747</v>
       </c>
       <c r="R69">
-        <v>187769</v>
+        <v>40580</v>
       </c>
       <c r="S69" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
@@ -5428,7 +5430,7 @@
         <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D70">
         <v>119459943</v>
@@ -5452,7 +5454,7 @@
         <v>6</v>
       </c>
       <c r="K70" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L70" s="2">
         <v>119187504</v>
@@ -5461,7 +5463,7 @@
         <v>120177348</v>
       </c>
       <c r="N70" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O70">
         <v>120177348</v>
@@ -5476,7 +5478,7 @@
         <v>717405</v>
       </c>
       <c r="S70" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="T70">
         <v>3</v>
@@ -5490,7 +5492,7 @@
         <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D71">
         <v>119459940</v>
@@ -5514,7 +5516,7 @@
         <v>5</v>
       </c>
       <c r="K71" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L71" s="2">
         <v>119187504</v>
@@ -5523,7 +5525,7 @@
         <v>120177348</v>
       </c>
       <c r="N71" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O71">
         <v>120177348</v>
@@ -5538,7 +5540,7 @@
         <v>717408</v>
       </c>
       <c r="S71" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="T71">
         <v>3</v>
@@ -5552,7 +5554,7 @@
         <v>57</v>
       </c>
       <c r="C72" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D72">
         <v>14956151</v>
@@ -5576,7 +5578,7 @@
         <v>2</v>
       </c>
       <c r="K72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L72" s="2">
         <v>14219287</v>
@@ -5585,7 +5587,7 @@
         <v>15444539</v>
       </c>
       <c r="N72" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O72">
         <v>14219287</v>
@@ -5600,15 +5602,15 @@
         <v>736864</v>
       </c>
       <c r="S72" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="T72">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:T73">
-    <sortCondition descending="1" ref="F1"/>
+  <sortState ref="A2:T72">
+    <sortCondition ref="T1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
